--- a/pahang.xlsx
+++ b/pahang.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291B11E-93E4-4EB2-BEBC-5ADE82AC5FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="364">
   <si>
     <t>BRAND</t>
   </si>
@@ -56,9 +49,6 @@
     <t>ELE-EDV904H3WC</t>
   </si>
   <si>
-    <t>9KG TUMBER DRYER</t>
-  </si>
-  <si>
     <t>https://www.electrolux.com.my/globalassets/appliances/dryers/edv904h3wc/edv904h3wc-frcl-1500x1500.png</t>
   </si>
   <si>
@@ -68,117 +58,78 @@
     <t>HAI-EI42EFP3B(MY)</t>
   </si>
   <si>
-    <t>4.2Kw DC Pump rainshower water heater</t>
-  </si>
-  <si>
     <t>https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-4579/iVqMidej1698478441.png</t>
   </si>
   <si>
     <t>HAI-H55P750UX</t>
   </si>
   <si>
-    <t>QLED 4K TV -55"</t>
-  </si>
-  <si>
     <t>https://www.propedia.com.my/wp-content/uploads/2024/11/H55P750UX.png</t>
   </si>
   <si>
     <t>HAI-H65S75EUG</t>
   </si>
   <si>
-    <t>HQLED 4K TV -65"</t>
-  </si>
-  <si>
     <t>https://www.hlkonline.my/image/cache/catalog/2024/HAIER/HAI-H65S75EUG/2-800x800.jpeg</t>
   </si>
   <si>
     <t>HAI-H75P750UX</t>
   </si>
   <si>
-    <t>HQLED 4K TV -75"</t>
-  </si>
-  <si>
     <t>https://1now.my/wp-content/uploads/2024/08/1f0433b885d6376c2be8a22907ee347c.png</t>
   </si>
   <si>
     <t>HAI-H85S800UX</t>
   </si>
   <si>
-    <t>QLED 4K TV -85"</t>
-  </si>
-  <si>
     <t>https://cdn.media.amplience.net/i/xcite/547749-01</t>
   </si>
   <si>
     <t>HAI-HRF458IHM</t>
   </si>
   <si>
-    <t>458L 2 DOOR FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/h/r/hrf458ihm.png</t>
   </si>
   <si>
     <t>HAI-HRF689SIGE</t>
   </si>
   <si>
-    <t>689L SIDE BY SIDE FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/h/a/haier_side_by_side_series_hrf689sige.png</t>
   </si>
   <si>
     <t>HAI-HRFIG585EMGB</t>
   </si>
   <si>
-    <t>529L MULTIDOOR FRIDGE (BLACK)</t>
-  </si>
-  <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/h/a/haier_multi_door_refrigerator_hrfig585emgb.png</t>
   </si>
   <si>
     <t>HAI-HRFIT515MGB</t>
   </si>
   <si>
-    <t>515L 2 DOOR FRIDGE</t>
-  </si>
-  <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/788/1078806/447x447/17012025_1078806$Imagex1.jpg</t>
   </si>
   <si>
     <t>HAI-HSU10VQC22</t>
   </si>
   <si>
-    <t>1.0HP INVERTER AIR CONDITIONER</t>
-  </si>
-  <si>
     <t>https://img.srewardscentre.com.my/image/676e72e992b941a8bce77bfb8bdbede9.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
   <si>
     <t>HAI-HSU13VQC22</t>
   </si>
   <si>
-    <t>1.5HP INVERTER AIR CONDITIONER</t>
-  </si>
-  <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/722/1072262/447x447/27052024_1072262$Imagex6.jpg</t>
   </si>
   <si>
     <t>HAI-HWD150BP14986ES8U1</t>
   </si>
   <si>
-    <t>15KG/10KG WASHER DRYER INVERTER</t>
-  </si>
-  <si>
     <t>https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-5431/dZ9ePbHa1729992402.jpg</t>
   </si>
   <si>
     <t>HAI-HWM200BD2178S8</t>
   </si>
   <si>
-    <t>20KG TOP LOAD WASHER INVERTER</t>
-  </si>
-  <si>
     <t>https://manuals.plus/wp-content/uploads/2024/04/Haier-HWM200-BD2178S8-Top-Load-Fully-Automatic-Washing-Machine-Product.jpg</t>
   </si>
   <si>
@@ -188,27 +139,18 @@
     <t>LG-55B4</t>
   </si>
   <si>
-    <t>OLED 4K TV-55"</t>
-  </si>
-  <si>
     <t>https://shoplineimg.com/621729e6ee0d440013c7df40/662f2f177ac360001a3ca61e/800x.jpg?</t>
   </si>
   <si>
     <t>LG-55QNED86TSA</t>
   </si>
   <si>
-    <t>4K Smart QNED TV - 55"</t>
-  </si>
-  <si>
     <t>https://hnsgsfp.imgix.net/9/images/detailed/103/LG-QNED86-TV-1_pxzf-8a.PNG?fit=fill&amp;bg=0FFF&amp;w=1536&amp;h=900&amp;auto=format,compress</t>
   </si>
   <si>
     <t>LG-65B4</t>
   </si>
   <si>
-    <t>OLED 4K TV-65"</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/tvs/oled65b4psa_ats_eaml_my_c/OLED65B4PSA_ATS_EAML_MY_C-450x450.jpg</t>
   </si>
   <si>
@@ -221,27 +163,18 @@
     <t>LG-65QNED86TSA</t>
   </si>
   <si>
-    <t>4K Smart QNED TV - 65"</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/tvs/65qned86tsa_ats_eaml_my_c/gallery/DZ-01.jpg</t>
   </si>
   <si>
     <t>LG-65UT8050</t>
   </si>
   <si>
-    <t>SMART UHD TV -65"</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/tvs/65ut8050psb_ats_eaml_my_c/gallery/DZ-01.jpg</t>
   </si>
   <si>
     <t>LG-75QNED80TSA</t>
   </si>
   <si>
-    <t>4K Smart QNED TV - 75"</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/tvs/75qned80tsa_ats_eaml_my_c/gallery/DZ-1.jpg</t>
   </si>
   <si>
@@ -254,123 +187,81 @@
     <t>LG-75UT8050</t>
   </si>
   <si>
-    <t>SMART UHD TV -75"</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/id/images/tv/75ut8050psb_ati_eain_id_c/uhd-ut80-75-b-gallery-01-v2.jpg/_jcr_content/renditions/thum-1600x1062.jpeg</t>
   </si>
   <si>
     <t>LG-F2515RTGB</t>
   </si>
   <si>
-    <t>15/8KG WASHER DRYER INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/f2515rtgb_ablreml_eaml_my_c/gallery/large01.jpg</t>
   </si>
   <si>
     <t>LG-F2515STGW</t>
   </si>
   <si>
-    <t>15KG FRONT LOAD WASHER INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/f2515stgw_abwreml_eaml_my_c/F2515STGW_ABWREML_EAML_MY_C-450x450.jpg</t>
   </si>
   <si>
     <t>LG-FV1450S4W</t>
   </si>
   <si>
-    <t>10.5KG FRONT LOAD WASHER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/fv1450s4w_abwpeml_eaml_my_c/gallery/D_1.jpg</t>
   </si>
   <si>
     <t>LG-GCM257CGFL</t>
   </si>
   <si>
-    <t>694L SIDE BY SIDE FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-m257cgfl_alwrlml_eaml_my_c/gallery/D-01.jpg</t>
   </si>
   <si>
     <t>LG-GCV24FFCHB</t>
   </si>
   <si>
-    <t>601L  MULTI DOOR FRIDGE</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-v24ffchb_aevrlml_eaml_my_c/gallery/12_F-Next6_GC-V24FFCHB_RVF-V256BS_EV_RightSide_On_1600.jpg</t>
   </si>
   <si>
     <t>LG-GCV257CQFW</t>
   </si>
   <si>
-    <t>655L SIDE BY SIDE FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-v257cqfw_aeprlml_eaml_my_c/gallery/DZ-012.jpg</t>
   </si>
   <si>
     <t>LG-GCX257CSES</t>
   </si>
   <si>
-    <t>674L SIDE BY SIDE FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-x257cses_absrlml_eaml_my_c/gallery/medium01.jpg</t>
   </si>
   <si>
     <t>LG-GNB332PBGB</t>
   </si>
   <si>
-    <t>360L 2 DOOR FRIDGE INVERTER(BEIGE)</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gn-b332pbgb_abnrlml_eaml_my_c/gallery/D-01v.jpg</t>
   </si>
   <si>
     <t>LG-GNB452PBFK</t>
   </si>
   <si>
-    <t>493L 2 DOOR FRD INV (Nature Beige Finish)</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRQISx1HMQKQQ2QyigB6a51x8GDz3pT0YaGIA&amp;s</t>
   </si>
   <si>
     <t>LG-GNC702SGGM</t>
   </si>
   <si>
-    <t>547L 2 DOOR FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gn-c702sggm_abmrlml_eaml_my_c/gallery/C702SGGC-dz-01.jpg</t>
   </si>
   <si>
     <t>LG-RH10VHP2B</t>
   </si>
   <si>
-    <t>10KG HEAT PUMP TUMBLE DRYER INVERTER</t>
-  </si>
-  <si>
     <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/rh10vhp2b_bblreml_eaml_my_c/gallery/DZ-1.jpg</t>
   </si>
   <si>
     <t>LG-S3Q09JAPPA</t>
   </si>
   <si>
-    <t>1.0HP Dual Inverter Premium</t>
-  </si>
-  <si>
     <t>LG-S3Q12JAPPA</t>
   </si>
   <si>
-    <t>1.5HP Dual Inverter Premium</t>
-  </si>
-  <si>
     <t>LG-S40T</t>
   </si>
   <si>
@@ -386,78 +277,51 @@
     <t>LG-TV2515DV3B</t>
   </si>
   <si>
-    <t>15KG TOP LOAD WASHER INVERTER</t>
-  </si>
-  <si>
     <t>LG-TV2520SV7K</t>
   </si>
   <si>
     <t>LG-TV2724SV9K</t>
   </si>
   <si>
-    <t>24KG TOP LOAD WASHER INVERTER</t>
-  </si>
-  <si>
     <t>LG-WT1410NHEG</t>
   </si>
   <si>
-    <t>14KG/10KG WASHER DRYER INVERTER</t>
-  </si>
-  <si>
     <t>PHILIPS</t>
   </si>
   <si>
     <t>PLP-BHD720/13</t>
   </si>
   <si>
-    <t>HAIR DRYER</t>
-  </si>
-  <si>
     <t>https://images.philips.com/is/image/philipsconsumer/2221e8c6bd974f3f9a0cb0c000d8f0ef?$pnglarge$&amp;wid=960</t>
   </si>
   <si>
     <t>PLP-FC9350</t>
   </si>
   <si>
-    <t>High Suction Bagless vacuum cleaner</t>
-  </si>
-  <si>
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_9224c91a403f836307f980a977640b9808f05421?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
     <t>PLP-HD4539/62</t>
   </si>
   <si>
-    <t>1.5L RICE COOKER</t>
-  </si>
-  <si>
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_233cca758569ccdf8eb02c7cec791e5fa25392e3?$pnglarge$&amp;wid=960</t>
   </si>
   <si>
     <t>PLP-PSG7030</t>
   </si>
   <si>
-    <t>STEAM GENERATOR 1.8L</t>
-  </si>
-  <si>
     <t>https://images.philips.com/is/image/philipsconsumer/190e7e268c824908be02ad9c00d7818f?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
     <t>PLP-PSG9050/26</t>
   </si>
   <si>
-    <t>STEAM GENERATOR</t>
-  </si>
-  <si>
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_33b8194fbc9cc2c64d041a43527895c49947ef3a?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
     <t>PLP-S7886/50</t>
   </si>
   <si>
-    <t>WET AND DRY SHAVER</t>
-  </si>
-  <si>
     <t>https://images.philips.com/is/image/philipsconsumer/292e377cdbd7450785ceaf8d00ca1c4c?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
@@ -467,78 +331,48 @@
     <t>PSN-CSRU12AKH-1</t>
   </si>
   <si>
-    <t>1.5HP X-Delux Inverter</t>
-  </si>
-  <si>
     <t>https://www.banhuat.com/image/cache/catalog/products/airconditional/panasonic/CSPU9XKH-1/CSPU9XKH-1-T1-1000x1000.jpg</t>
   </si>
   <si>
     <t>PSN-CSRU9AKH-1</t>
   </si>
   <si>
-    <t>1.0HP X-Delux Inverter</t>
-  </si>
-  <si>
     <t>https://www.esh2u.com/cdn/shop/files/5_adcee38a-1a10-4d2b-8a68-3859c36a454d_460x@2x.png?v=1711361574</t>
   </si>
   <si>
     <t>PSN-DH3NDP1MSR</t>
   </si>
   <si>
-    <t>3.6kW Water Heater</t>
-  </si>
-  <si>
     <t>https://www.panasonic.com/content/dam/pim/my/en/DH/DH-3ND/DH-3NDP1MSR/ast-1412173.png.pub.thumb.644.644.png</t>
   </si>
   <si>
     <t>PSN-DH3UP1MW</t>
   </si>
   <si>
-    <t>3600W with Pump Water Heater</t>
-  </si>
-  <si>
     <t>https://www.panasonic.com/content/dam/pim/my/en/DH/DH-3UP/DH-3UP1MW/ast-1725765.png.pub.thumb.644.644.png</t>
   </si>
   <si>
     <t>PSN-EHNA7MP</t>
   </si>
   <si>
-    <t>NANOE CARE HAIR DRYER</t>
-  </si>
-  <si>
     <t>https://img.srewardscentre.com.my/images/ac75a13d-ee80-4bdd-afa9-9a065d547f5b.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
   <si>
     <t>PSN-FM15GCVBKSH</t>
   </si>
   <si>
-    <t>60" 5 blade with LED Ceiling Fan</t>
-  </si>
-  <si>
     <t>PSN-FM15MEVBKQH</t>
   </si>
   <si>
-    <t>60" 5 Blade Short Pipe Ceiling Fan</t>
-  </si>
-  <si>
     <t>PSN-FPXU70AWM</t>
   </si>
   <si>
-    <t>Nanoe™ X Air Purifier with HEPA Composite Filter</t>
-  </si>
-  <si>
     <t>PSN-NAS106FR1</t>
   </si>
   <si>
-    <t>10KG/6KG WASHER DRYER</t>
-  </si>
-  <si>
     <t>PSN-NHEH10JD1</t>
   </si>
   <si>
-    <t>10KG HEAT PUMP DRYER</t>
-  </si>
-  <si>
     <t>PSN-NIGT150ASK</t>
   </si>
   <si>
@@ -548,27 +382,15 @@
     <t>PSN-NRBX471WGKM</t>
   </si>
   <si>
-    <t>465L 2 DOOR FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>PSN-NRCW530XM</t>
   </si>
   <si>
-    <t>495L MULTI DOOR FRIDGE</t>
-  </si>
-  <si>
     <t>PSN-NRYW590YM</t>
   </si>
   <si>
-    <t>583L MULTI DOOR INVERTER</t>
-  </si>
-  <si>
     <t>PSN-NUSC180</t>
   </si>
   <si>
-    <t>20L Cubie Oven</t>
-  </si>
-  <si>
     <t>PSN-SRHL151KSK</t>
   </si>
   <si>
@@ -578,27 +400,18 @@
     <t>PSN-TH55MX650K</t>
   </si>
   <si>
-    <t>4K Google TV - 55 INCH</t>
-  </si>
-  <si>
     <t>ROBAM</t>
   </si>
   <si>
     <t>ROB-76H1S-GR</t>
   </si>
   <si>
-    <t>18CM Ultra Slim Hood</t>
-  </si>
-  <si>
     <t>https://my.robamworld.com/uploads/2b2890951.jpg</t>
   </si>
   <si>
     <t>ROB-7W2H00</t>
   </si>
   <si>
-    <t>Ceramic Hob</t>
-  </si>
-  <si>
     <t>https://my.robamworld.com/uploads/e07321ff.jpg</t>
   </si>
   <si>
@@ -614,9 +427,6 @@
     <t>ROB-A817</t>
   </si>
   <si>
-    <t>Cooker Hood</t>
-  </si>
-  <si>
     <t>https://www.robamworld.com/uploads/a2bafdbc.jpg</t>
   </si>
   <si>
@@ -629,9 +439,6 @@
     <t>ROB-W2984</t>
   </si>
   <si>
-    <t>78CM Built-In Hob</t>
-  </si>
-  <si>
     <t>https://my.robamworld.com/uploads/bdea33a8.jpg</t>
   </si>
   <si>
@@ -641,9 +448,6 @@
     <t>SAM-AR13BYEA</t>
   </si>
   <si>
-    <t>1.5HP A/C WindFree Premium Inverter</t>
-  </si>
-  <si>
     <t>https://images.samsung.com/is/image/samsung/p6pim/my/f-ar1-0byeaawk/gallery/my-wall-mount-f-ar1-0byeaawk-l-perspective-white-thumb-531730000?$360_360_PNG$</t>
   </si>
   <si>
@@ -656,99 +460,60 @@
     <t>SAM-HWQ700D</t>
   </si>
   <si>
-    <t>DOLBY ATMOS SOUNDBAR 3.1.2CH</t>
-  </si>
-  <si>
     <t>https://images.samsung.com/is/image/samsung/p6pim/my/hw-q700d-xm/gallery/my-q-series-soundbar-hw-q700d-hw-q700d-xm-540508902?$684_547_PNG$</t>
   </si>
   <si>
     <t>SAM-HWQ930D</t>
   </si>
   <si>
-    <t>DOLBY ATMOS 9.1.4 CH</t>
-  </si>
-  <si>
     <t>https://images.samsung.com/is/image/samsung/p6pim/my/hw-q930d-xm/gallery/my-q-series-soundbar-hw-q930d-hw-q930d-xm-540508246?$684_547_PNG$</t>
   </si>
   <si>
     <t>SAM-HWQ990D</t>
   </si>
   <si>
-    <t>DOLBY ATMOS SOUNDBAR 11.1.4CH</t>
-  </si>
-  <si>
     <t>https://images.samsung.com/is/image/samsung/p6pim/my/hw-q990d-xm/gallery/my-q-series-soundbar-hw-q990d-hw-q990d-xm-540507335?$684_547_PNG$</t>
   </si>
   <si>
     <t>SAM-MC35R8088LC/SM</t>
   </si>
   <si>
-    <t>35Lit Convection Microwave Oven</t>
-  </si>
-  <si>
     <t>https://images.samsung.com/is/image/samsung/p6pim/my/mc35r8088lc-sm/gallery/my-bespoke-mw8000r-mc35r8088lc-sm-399028624?$684_547_PNG$</t>
   </si>
   <si>
     <t>SAM-MG30T5018CP/SM</t>
   </si>
   <si>
-    <t>30Lit Grill Microwave Oven</t>
-  </si>
-  <si>
     <t>https://hnsgsfp.imgix.net/9/images/detailed/63/Samsung_MG30T5018CP_SM_30L_Grill_Microwave_Oven_-_Pink.jpg?fit=fill&amp;bg=0FFF&amp;w=1534&amp;h=900&amp;auto=format,compress</t>
   </si>
   <si>
     <t>SAM-RS57DG4000B4</t>
   </si>
   <si>
-    <t>603L SIDE BY SIDE FRIDGE</t>
-  </si>
-  <si>
     <t>https://images.samsung.com/is/image/samsung/p6pim/my/rs57dg4000b4me/gallery/my-rs4000dc-side-by-side-with-large-capacity-rs57dg4000b4me-542859088?$684_547_PNG$</t>
   </si>
   <si>
     <t>SAM-RT47CG6444B1</t>
   </si>
   <si>
-    <t>476L 2 DOOR FRIDGE INVERTER</t>
-  </si>
-  <si>
     <t>SAM-UA55DU8500</t>
   </si>
   <si>
-    <t>UHD SMART TV - 55"</t>
-  </si>
-  <si>
     <t>SAM-UA75DU7000</t>
   </si>
   <si>
-    <t>SMART UHD TV - 75"</t>
-  </si>
-  <si>
     <t>SAM-UA85DU8000</t>
   </si>
   <si>
-    <t>UHD 4K TV - 85"</t>
-  </si>
-  <si>
     <t>SAM-WD12DG5B15B</t>
   </si>
   <si>
-    <t>12KG/7KG WASHER DRYER</t>
-  </si>
-  <si>
     <t>SAM-WD17T6300GPSP</t>
   </si>
   <si>
-    <t>17KG/10KG WASHER DRYER</t>
-  </si>
-  <si>
     <t>SAM-WF24B9600KVFQ</t>
   </si>
   <si>
-    <t>24KG FRONT LOAD WASHER</t>
-  </si>
-  <si>
     <t>SHARP</t>
   </si>
   <si>
@@ -993,19 +758,367 @@
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/washing-machine/front-load-washer/tw-t21/T21-03.png/jcr:content/renditions/cq5dam.compression.png</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/content/dam/channel/wcms/my/images/home-air-conditioners/s3-q09jappa_atwgse1_eaml_my_c/gallery/large04.jpg</t>
+  </si>
+  <si>
+    <t>https://lgpuricaremalaysia.my/wp-content/uploads/2023/11/LG-Air-Conditioner-7.jpg</t>
+  </si>
+  <si>
+    <t>https://hnsgsfp.imgix.net/9/images/detailed/105/Slide2_73n1-23.JPG?fit=fill&amp;bg=0FFF&amp;w=1536&amp;h=901&amp;auto=format,compress</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/content/dam/channel/wcms/za/images/sound-bars/s70ty_azafllk_efsa_za_c/gallery/large02.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/content/dam/channel/wcms/my/images/home-audio-systems/s80qy_dmysllk_eaml_my_c/gallery/D-01.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/tv2515dv3b_apbreml_eaml_my_c/gallery/large01.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/tv2520sv7k_apbreml_eaml_my_c/gallery/DZ-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/content/dam/channel/wcms/my/images/washers/tv2724sv9k_apbreml_eaml_my_c/gallery/D-1.jpg</t>
+  </si>
+  <si>
+    <t>https://shop.tbm.com.my/cdn/shop/products/lg-front-load-washing-machine-wt1410nheg-tbm-your-neighbourhood-electrical-store-632324.jpg?v=1696380421&amp;width=1080</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/F-/F-M15G/F-M15GC-SPP/ast-1916950.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/F-/F-M15M/F-M15MEVBKQH-RH-SPP/ast-1916882.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.eleco.my/wp-content/uploads/2023/08/panasonic-nanoex-F-PXU70AWM-3.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/NA/NA-S10/NA-S106FR1BM/ast-2566461.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/NH/NH-EH1/NH-EH10JD1WM/ast-2449634.png.pub.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/NI/NI-GT1/NI-GT150/ast-2217543.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/NI/NI-GT5/NI-GT500/ast-1937590.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/NR/NR-BX4/NR-BX471WGK/ast-1269985.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/sg/en/NR/NR-CW5/NR-CW530XMMS/ast-1567225.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://www.banhuat.com/image/cache/catalog/products/Fridge/panasonic-spec/NRYW590YMMM/NRYW590YMMM-T1-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/NU/NU-SC1/NU-SC180B/ast-1144853.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/702/1070251/447x447/16112023_1070251$Imagex1.jpg</t>
+  </si>
+  <si>
+    <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/t/h/th55mx650k.png</t>
+  </si>
+  <si>
+    <t>https://images.samsung.com/is/image/samsung/p6pim/my/rt47cg6444b1me/gallery/my-top-mount-freezer-optimal-fresh-and-space-max-458442-rt47cg6444b1me-536924179?$624_624_PNG$</t>
+  </si>
+  <si>
+    <t>https://hnsgsfp.imgix.net/9/images/detailed/101/Samsung_DU8500_UHD_Smart_TV_1_tppm-lg.PNG?fit=fill&amp;bg=0FFF&amp;w=1536&amp;h=900&amp;auto=format,compress</t>
+  </si>
+  <si>
+    <t>https://images.samsung.com/is/image/samsung/p6pim/my/ua75du7000kxxm/gallery/my-uhd-4k-tv-ua75du7000kxxm-front-black-540886835?$684_547_PNG$</t>
+  </si>
+  <si>
+    <t>https://images.samsung.com/is/image/samsung/p6pim/my/ua85du8000kxxm/gallery/my-uhd-4k-tv-ua85du8000kxxm-front-gray-540882716?$684_547_PNG$</t>
+  </si>
+  <si>
+    <t>https://images.samsung.com/is/image/samsung/p6pim/my/wd12dg5b15bbfq/gallery/my-wd5000d-wd12dg5b15bbfq-542194835?$684_547_PNG$</t>
+  </si>
+  <si>
+    <t>https://images.samsung.com/is/image/samsung/p6pim/my/wd17t6300gp-sp/gallery/my-wd6000t-wd22t6500gvco-431584-wd17t6300gp-sp-533231067?$684_547_PNG$</t>
+  </si>
+  <si>
+    <t>https://images.samsung.com/is/image/samsung/p6pim/my/wf24b9600kv-fq/gallery/my-wf8000r-wf25b9600ke-front-loading-washer-wf24b9600kv-fq-536415515?$684_547_PNG$</t>
+  </si>
+  <si>
+    <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/x/8/x85l.jpg</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7qukz-lj6ktro8gdib92</t>
+  </si>
+  <si>
+    <t>https://hnsgsfp.imgix.net/9/images/detailed/94/sony-bravia-xr-55-inch-4k-ultra-hd-hdr-google-tv_1_3xgm-st.jpg?fit=fill&amp;bg=0FFF&amp;w=2500&amp;h=1463&amp;auto=format,compress</t>
+  </si>
+  <si>
+    <t>Electrolux 9kg UltimateCare 300 Venting Dryer</t>
+  </si>
+  <si>
+    <t>Haier 4.2kW DC Inverter Pump Rainshower Water Heater</t>
+  </si>
+  <si>
+    <t>Haier 55" QLED 4K Smart TV with Quantum Dot Technology</t>
+  </si>
+  <si>
+    <t>Haier 65" HQLED 4K Smart TV with Dolby Vision</t>
+  </si>
+  <si>
+    <t>Haier 75" HQLED 4K Smart TV with Android OS</t>
+  </si>
+  <si>
+    <t>Haier 85" QLED 4K Smart TV with HDR10+</t>
+  </si>
+  <si>
+    <t>Haier 458L 2-Door Inverter Refrigerator with Fast Cooling</t>
+  </si>
+  <si>
+    <t>Haier 689L Side-by-Side Inverter Refrigerator with Touch Control</t>
+  </si>
+  <si>
+    <t>Haier 529L Multi-Door Refrigerator (Black) with Flexible Storage</t>
+  </si>
+  <si>
+    <t>Haier 515L 2-Door Refrigerator with Humidity Control</t>
+  </si>
+  <si>
+    <t>Haier 1.0HP Inverter Air Conditioner with TurboCool Mode</t>
+  </si>
+  <si>
+    <t>Haier 1.5HP Inverter Air Conditioner with Self-Cleaning Function</t>
+  </si>
+  <si>
+    <t>Haier 15kg/10kg Washer Dryer Inverter with Hygiene Steam</t>
+  </si>
+  <si>
+    <t>Haier 20kg Top Load Washer Inverter with Direct Motion Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LG 55" OLED 4K Smart TV with α8 AI Processor and Dolby Vision</t>
+  </si>
+  <si>
+    <t>LG 55" 4K Smart QNED TV with Quantum Dot NanoCell Color Technology</t>
+  </si>
+  <si>
+    <t>LG 65" OLED 4K Smart TV with α8 AI Processor and Dolby Vision</t>
+  </si>
+  <si>
+    <t>LG 65" OLED 4K Smart TV with α9 AI Processor and Dolby Vision</t>
+  </si>
+  <si>
+    <t>LG 65" 4K Smart QNED TV with Quantum Dot NanoCell Color Technology</t>
+  </si>
+  <si>
+    <t>LG 65" Smart UHD TV with webOS and AI ThinQ</t>
+  </si>
+  <si>
+    <t>LG 75" 4K Smart QNED TV with Quantum Dot NanoCell Color Technology</t>
+  </si>
+  <si>
+    <t>LG 75" Smart UHD TV with webOS and AI ThinQ</t>
+  </si>
+  <si>
+    <t>LG 15kg/8kg Front Load Washer Dryer with AI Direct Drive and TurboWash Technology</t>
+  </si>
+  <si>
+    <t>LG 15kg Front Load Washer with AI Direct Drive and TurboWash Technology</t>
+  </si>
+  <si>
+    <t>LG 10.5kg Front Load Washer with AI Direct Drive and Steam Technology</t>
+  </si>
+  <si>
+    <t>LG 694L Side-by-Side Refrigerator with Inverter Linear Compressor</t>
+  </si>
+  <si>
+    <t>LG 601L Multi-Door Refrigerator with Inverter Linear Compressor</t>
+  </si>
+  <si>
+    <t>LG 655L Side-by-Side Refrigerator with Inverter Linear Compressor</t>
+  </si>
+  <si>
+    <t>LG 674L Side-by-Side Refrigerator with Inverter Linear Compressor</t>
+  </si>
+  <si>
+    <t>LG 360L 2-Door Refrigerator with Inverter Linear Compressor (Beige)</t>
+  </si>
+  <si>
+    <t>LG 493L 2-Door Refrigerator with Inverter Linear Compressor (Nature Beige Finish)</t>
+  </si>
+  <si>
+    <t>LG 547L 2-Door Refrigerator with Inverter Linear Compressor</t>
+  </si>
+  <si>
+    <t>LG 10kg Heat Pump Tumble Dryer with Dual Inverter Heat Pump Technology</t>
+  </si>
+  <si>
+    <t>LG 1.0HP Dual Inverter Premium Air Conditioner with ThinQ Connectivity</t>
+  </si>
+  <si>
+    <t>LG 1.5HP Dual Inverter Premium Air Conditioner with ThinQ Connectivity</t>
+  </si>
+  <si>
+    <t>LG 2.1 Channel Sound Bar with Wireless Subwoofer and Bluetooth Connectivity</t>
+  </si>
+  <si>
+    <t>LG 3.1.1 Channel Sound Bar with Dolby Atmos and Up-Firing Center Channel</t>
+  </si>
+  <si>
+    <t>LG 3.1.3 Channel Sound Bar with Dolby Atmos and DTS:X</t>
+  </si>
+  <si>
+    <t>LG 15kg Top Load Washer with Smart Inverter and TurboDrum Technology</t>
+  </si>
+  <si>
+    <t>LG 20kg Top Load Washer with AI Direct Drive and TurboWash3D</t>
+  </si>
+  <si>
+    <t>LG 24kg Top Load Washer with AI Direct Drive and Steam Technology</t>
+  </si>
+  <si>
+    <t>LG 14kg/10kg Washer Dryer Combo with AI Direct Drive and Steam Technology</t>
+  </si>
+  <si>
+    <t>Philips Hair Dryer with ThermoProtect Technology</t>
+  </si>
+  <si>
+    <t>Philips PowerPro Compact Bagless Vacuum Cleaner with High Suction Power</t>
+  </si>
+  <si>
+    <t>Philips 1.5L Daily Collection Rice Cooker with 5-layer Non-stick Inner Pot</t>
+  </si>
+  <si>
+    <t>Philips PerfectCare 7000 Series Steam Generator Iron with 1.8L Detachable Water Tank</t>
+  </si>
+  <si>
+    <t>Philips PerfectCare 9000 Series Steam Generator Iron with ActiveSense Technology</t>
+  </si>
+  <si>
+    <t>Philips Wet and Dry Electric Shaver with SkinIQ Technology</t>
+  </si>
+  <si>
+    <t>Panasonic 1.5HP X-Delux Inverter Air Conditioner with Energy-Saving Features</t>
+  </si>
+  <si>
+    <t>Panasonic 1.0HP X-Delux Inverter Air Conditioner for Compact Spaces</t>
+  </si>
+  <si>
+    <t>Panasonic 3.6kW Instant Water Heater for Fast Heating</t>
+  </si>
+  <si>
+    <t>Panasonic 3600W Water Heater with Built-In Pump for Enhanced Performance</t>
+  </si>
+  <si>
+    <t>Panasonic Nanoe Care Hair Dryer with Nanoe Technology for Healthy Hair</t>
+  </si>
+  <si>
+    <t>Panasonic 60" 5-Blade Ceiling Fan with Integrated LED Light</t>
+  </si>
+  <si>
+    <t>Panasonic 60" 5-Blade Short Pipe Ceiling Fan for Low Ceilings</t>
+  </si>
+  <si>
+    <t>Panasonic Nanoe™ X Air Purifier with HEPA Composite Filter for Clean Air</t>
+  </si>
+  <si>
+    <t>Panasonic 10KG Washer and 6KG Dryer Combo for Laundry Convenience</t>
+  </si>
+  <si>
+    <t>Panasonic 10KG Heat Pump Dryer with Energy-Efficient Drying</t>
+  </si>
+  <si>
+    <t>Panasonic 2400W Steam Generator Iron with 1.5L Detachable Water Tank</t>
+  </si>
+  <si>
+    <t>Panasonic 2400W Steam Generator Iron with 1.8L Tank and High Steam Output</t>
+  </si>
+  <si>
+    <t>Panasonic 465L 2-Door Inverter Refrigerator with Energy-Saving Technology</t>
+  </si>
+  <si>
+    <t>Panasonic 495L Multi-Door Refrigerator with Spacious Storage Design</t>
+  </si>
+  <si>
+    <t>Panasonic 583L Multi-Door Inverter Refrigerator for Large Families</t>
+  </si>
+  <si>
+    <t>Panasonic 20L Cubie Oven with Compact and Versatile Cooking Options</t>
+  </si>
+  <si>
+    <t>Panasonic 1.5L IH Rice Cooker with Induction Heating Technology</t>
+  </si>
+  <si>
+    <t>Panasonic 55" 4K Google TV with Smart Features and High-Resolution Display</t>
+  </si>
+  <si>
+    <t>Robam 18CM Ultra Slim Hood with 1800 m³/h Airflow and Gesture Control</t>
+  </si>
+  <si>
+    <t>Robam 2200W Ceramic Hob with Dual-Ring Heating and Timer Function</t>
+  </si>
+  <si>
+    <t>Robam Ceramic and Induction Hob with 4100W Total Power and Dual Zones</t>
+  </si>
+  <si>
+    <t>Robam Cooker Hood with 4D Fresh Oil Fume Filtering and Dual Lighting</t>
+  </si>
+  <si>
+    <t>Robam 78CM Built-In Hob with Dual Cooking Zones and Overheat Protection</t>
+  </si>
+  <si>
+    <t>Samsung 1.5HP WindFree™ Premium Inverter Air Conditioner with R32 Refrigerant and 23,000 Micro Air Holes</t>
+  </si>
+  <si>
+    <t>Samsung 10KG Bespoke AI Heat Pump Dryer with A+++ Energy Efficiency and QuickDrive™ Technology</t>
+  </si>
+  <si>
+    <t>Samsung 30L Grill Microwave Oven with Multi-Function Cooking</t>
+  </si>
+  <si>
+    <t>Samsung 35L Convection Microwave Oven with Smart Cooking Features</t>
+  </si>
+  <si>
+    <t>Samsung HW-Q990D Dolby Atmos Soundbar with 11.1.4 Channel Premium Surround Sound</t>
+  </si>
+  <si>
+    <t>Samsung HW-Q930D Dolby Atmos Soundbar with 9.1.4 Channel Immersive Audio</t>
+  </si>
+  <si>
+    <t>Samsung HW-Q700D Dolby Atmos Soundbar with 3.1.2 Channel Surround Sound</t>
+  </si>
+  <si>
+    <t>Samsung 603L Side-by-Side Refrigerator with Twin Cooling Plus™ Technology</t>
+  </si>
+  <si>
+    <t>Samsung 476L 2-Door Inverter Refrigerator with Energy-Efficient Cooling</t>
+  </si>
+  <si>
+    <t>Samsung 55" UHD Smart TV with Crystal Processor 4K and HDR10+</t>
+  </si>
+  <si>
+    <t>Samsung 75" Smart UHD TV with Dynamic Crystal Color and Adaptive Sound</t>
+  </si>
+  <si>
+    <t>Samsung 85" UHD 4K TV with Quantum Dot Technology and Object Tracking Sound</t>
+  </si>
+  <si>
+    <t>Samsung 12KG Washer and 7KG Dryer Combo with EcoBubble™ Technology</t>
+  </si>
+  <si>
+    <t>Samsung 17KG Washer and 10KG Dryer Combo with AI Control and Super Speed Wash</t>
+  </si>
+  <si>
+    <t>Samsung 24KG Front Load Washer with Smart Control and Hygiene Steam Wash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1054,160 +1167,28 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,188 +1213,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1436,254 +1237,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,83 +1257,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2056,28 +1587,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="28.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="43.7777777777778" customWidth="1"/>
-    <col min="4" max="6" width="6.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,15 +1631,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
+      <c r="C2" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="D2" s="6">
         <v>0.2</v>
@@ -2120,18 +1651,18 @@
         <v>1949</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
+      <c r="C3" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="D3" s="6">
         <v>0.2</v>
@@ -2143,18 +1674,18 @@
         <v>699</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="D4" s="6">
         <v>0.2</v>
@@ -2166,18 +1697,18 @@
         <v>2299</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="D5" s="6">
         <v>0.2</v>
@@ -2189,18 +1720,18 @@
         <v>2699</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="D6" s="6">
         <v>0.2</v>
@@ -2212,18 +1743,18 @@
         <v>4499</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="D7" s="6">
         <v>0.2</v>
@@ -2235,18 +1766,18 @@
         <v>7699</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="D8" s="6">
         <v>0.2</v>
@@ -2258,18 +1789,18 @@
         <v>1799</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="D9" s="6">
         <v>0.2</v>
@@ -2281,18 +1812,18 @@
         <v>2999</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="D10" s="6">
         <v>0.2</v>
@@ -2304,18 +1835,18 @@
         <v>3299</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="D11" s="6">
         <v>0.2</v>
@@ -2327,18 +1858,18 @@
         <v>2399</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="D12" s="6">
         <v>0.2</v>
@@ -2350,18 +1881,18 @@
         <v>1499</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="D13" s="6">
         <v>0.2</v>
@@ -2373,18 +1904,18 @@
         <v>1799</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="D14" s="6">
         <v>0.2</v>
@@ -2396,18 +1927,18 @@
         <v>3799</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="D15" s="6">
         <v>0.2</v>
@@ -2419,18 +1950,18 @@
         <v>2499</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="D16" s="6">
         <v>0.2</v>
@@ -2442,18 +1973,18 @@
         <v>5999</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="D17" s="6">
         <v>0.2</v>
@@ -2465,18 +1996,18 @@
         <v>4399</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="D18" s="6">
         <v>0.2</v>
@@ -2488,18 +2019,18 @@
         <v>8999</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="D19" s="6">
         <v>0.2</v>
@@ -2511,18 +2042,18 @@
         <v>10999</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="D20" s="6">
         <v>0.2</v>
@@ -2534,18 +2065,18 @@
         <v>5599</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="D21" s="6">
         <v>0.2</v>
@@ -2557,18 +2088,18 @@
         <v>3299</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="D22" s="6">
         <v>0.2</v>
@@ -2580,18 +2111,18 @@
         <v>6399</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="D23" s="6">
         <v>0.2</v>
@@ -2603,18 +2134,18 @@
         <v>7999</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="D24" s="6">
         <v>0.2</v>
@@ -2626,18 +2157,18 @@
         <v>5099</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D25" s="6">
         <v>0.2</v>
@@ -2649,18 +2180,18 @@
         <v>4599</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="D26" s="6">
         <v>0.2</v>
@@ -2672,18 +2203,18 @@
         <v>3499</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="D27" s="6">
         <v>0.2</v>
@@ -2695,18 +2226,18 @@
         <v>2599</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="D28" s="6">
         <v>0.2</v>
@@ -2718,18 +2249,18 @@
         <v>5499</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="D29" s="6">
         <v>0.2</v>
@@ -2741,18 +2272,18 @@
         <v>7199</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="D30" s="6">
         <v>0.2</v>
@@ -2764,18 +2295,18 @@
         <v>5799</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="D31" s="6">
         <v>0.2</v>
@@ -2787,18 +2318,18 @@
         <v>7099</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>99</v>
+        <v>70</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="D32" s="6">
         <v>0.2</v>
@@ -2810,18 +2341,18 @@
         <v>2099</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="D33" s="6">
         <v>0.2</v>
@@ -2833,18 +2364,18 @@
         <v>2799</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="D34" s="6">
         <v>0.2</v>
@@ -2856,18 +2387,18 @@
         <v>3199</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>108</v>
+        <v>76</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="D35" s="6">
         <v>0.2</v>
@@ -2879,18 +2410,18 @@
         <v>3899</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>111</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="D36" s="6">
         <v>0.2</v>
@@ -2901,17 +2432,19 @@
       <c r="F36" s="7">
         <v>2099</v>
       </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G36" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>113</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="D37" s="6">
         <v>0.2</v>
@@ -2922,17 +2455,19 @@
       <c r="F37" s="7">
         <v>2399</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G37" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="D38" s="6">
         <v>0.2</v>
@@ -2943,17 +2478,19 @@
       <c r="F38" s="7">
         <v>799</v>
       </c>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" ht="13" customHeight="1" spans="1:7">
+      <c r="G38" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.95" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>115</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="D39" s="6">
         <v>0.2</v>
@@ -2964,17 +2501,19 @@
       <c r="F39" s="7">
         <v>1599</v>
       </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G39" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="D40" s="6">
         <v>0.2</v>
@@ -2985,17 +2524,19 @@
       <c r="F40" s="7">
         <v>2299</v>
       </c>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G40" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>119</v>
+        <v>37</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D41" s="6">
         <v>0.2</v>
@@ -3006,17 +2547,19 @@
       <c r="F41" s="7">
         <v>2099</v>
       </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G41" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="D42" s="6">
         <v>0.2</v>
@@ -3027,17 +2570,19 @@
       <c r="F42" s="7">
         <v>2699</v>
       </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G42" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="D43" s="6">
         <v>0.2</v>
@@ -3048,17 +2593,19 @@
       <c r="F43" s="7">
         <v>3249</v>
       </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G43" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>124</v>
+        <v>37</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="D44" s="6">
         <v>0.2</v>
@@ -3069,17 +2616,19 @@
       <c r="F44" s="7">
         <v>8999</v>
       </c>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G44" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>127</v>
+        <v>89</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="D45" s="6">
         <v>0.2</v>
@@ -3091,18 +2640,18 @@
         <v>459</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>130</v>
+        <v>91</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="D46" s="6">
         <v>0.2</v>
@@ -3114,18 +2663,18 @@
         <v>399</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75" customHeight="1" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>133</v>
+        <v>93</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="D47" s="6">
         <v>0.2</v>
@@ -3137,18 +2686,18 @@
         <v>469</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75" customHeight="1" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>136</v>
+        <v>95</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="D48" s="6">
         <v>0.2</v>
@@ -3160,18 +2709,18 @@
         <v>1499</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75" customHeight="1" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>139</v>
+        <v>97</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="D49" s="6">
         <v>0.2</v>
@@ -3183,18 +2732,18 @@
         <v>2599</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>142</v>
+        <v>99</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="D50" s="6">
         <v>0.2</v>
@@ -3206,18 +2755,18 @@
         <v>939</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" ht="12.75" customHeight="1" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="D51" s="6">
         <v>0.2</v>
@@ -3229,18 +2778,18 @@
         <v>2439</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>104</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="D52" s="6">
         <v>0.2</v>
@@ -3252,18 +2801,18 @@
         <v>2179</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>152</v>
+        <v>106</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="D53" s="6">
         <v>0.2</v>
@@ -3275,18 +2824,18 @@
         <v>939</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>155</v>
+        <v>108</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="D54" s="6">
         <v>0.2</v>
@@ -3298,18 +2847,18 @@
         <v>693</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75" customHeight="1" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>158</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="D55" s="6">
         <v>0.2</v>
@@ -3321,18 +2870,18 @@
         <v>494</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" ht="12.75" customHeight="1" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>161</v>
+        <v>101</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="D56" s="6">
         <v>0.2</v>
@@ -3343,17 +2892,19 @@
       <c r="F56" s="7">
         <v>1109</v>
       </c>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G56" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>163</v>
+        <v>101</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>332</v>
       </c>
       <c r="D57" s="6">
         <v>0.2</v>
@@ -3364,17 +2915,19 @@
       <c r="F57" s="7">
         <v>1109</v>
       </c>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G57" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>165</v>
+        <v>101</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="D58" s="6">
         <v>0.26</v>
@@ -3385,17 +2938,19 @@
       <c r="F58" s="7">
         <v>2519</v>
       </c>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G58" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>167</v>
+        <v>101</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="D59" s="6">
         <v>0.2</v>
@@ -3406,17 +2961,19 @@
       <c r="F59" s="7">
         <v>3419</v>
       </c>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G59" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>169</v>
+        <v>101</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="D60" s="6">
         <v>0.2</v>
@@ -3427,17 +2984,19 @@
       <c r="F60" s="7">
         <v>3649</v>
       </c>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G60" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="D61" s="6">
         <v>0.2</v>
@@ -3448,17 +3007,19 @@
       <c r="F61" s="7">
         <v>549</v>
       </c>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G61" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="D62" s="6">
         <v>0.2</v>
@@ -3469,17 +3030,19 @@
       <c r="F62" s="7">
         <v>1434</v>
       </c>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G62" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="D63" s="6">
         <v>0.2</v>
@@ -3490,17 +3053,19 @@
       <c r="F63" s="7">
         <v>3349</v>
       </c>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G63" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>175</v>
+        <v>101</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="D64" s="6">
         <v>0.2</v>
@@ -3511,17 +3076,19 @@
       <c r="F64" s="7">
         <v>5659</v>
       </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G64" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>177</v>
+        <v>101</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="D65" s="6">
         <v>0.2</v>
@@ -3532,17 +3099,19 @@
       <c r="F65" s="7">
         <v>6399</v>
       </c>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G65" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>179</v>
+        <v>101</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="D66" s="6">
         <v>0.2</v>
@@ -3553,17 +3122,19 @@
       <c r="F66" s="7">
         <v>1809</v>
       </c>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G66" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>181</v>
+        <v>101</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="D67" s="6">
         <v>0.2</v>
@@ -3574,17 +3145,19 @@
       <c r="F67" s="7">
         <v>799</v>
       </c>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G67" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>183</v>
+        <v>101</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="D68" s="6">
         <v>0.2</v>
@@ -3595,17 +3168,19 @@
       <c r="F68" s="7">
         <v>2579</v>
       </c>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G68" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.75" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>186</v>
+        <v>127</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="D69" s="6">
         <v>0.25</v>
@@ -3617,18 +3192,18 @@
         <v>2899</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" ht="12.75" customHeight="1" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.75" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>189</v>
+        <v>129</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="D70" s="6">
         <v>0.25</v>
@@ -3640,18 +3215,18 @@
         <v>2149</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75" customHeight="1" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D71" s="6">
         <v>0.25</v>
@@ -3663,18 +3238,18 @@
         <v>2350</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75" customHeight="1" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>195</v>
+        <v>134</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="D72" s="6">
         <v>0.25</v>
@@ -3686,18 +3261,18 @@
         <v>1999</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" ht="12.75" customHeight="1" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>195</v>
+        <v>136</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="D73" s="6">
         <v>0.25</v>
@@ -3709,18 +3284,18 @@
         <v>2899</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" ht="12.75" customHeight="1" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>200</v>
+        <v>138</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="D74" s="6">
         <v>0.25</v>
@@ -3732,18 +3307,18 @@
         <v>1849</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75" customHeight="1" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>204</v>
+        <v>141</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D75" s="6">
         <v>0.2</v>
@@ -3755,18 +3330,18 @@
         <v>2499</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" ht="12.75" customHeight="1" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="D76" s="6">
         <v>0.2</v>
@@ -3778,18 +3353,18 @@
         <v>3749</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75" customHeight="1" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>209</v>
+        <v>145</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="D77" s="6">
         <v>0.2</v>
@@ -3801,18 +3376,18 @@
         <v>2099</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" ht="12.75" customHeight="1" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>212</v>
+        <v>147</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="D78" s="6">
         <v>0.2</v>
@@ -3824,18 +3399,18 @@
         <v>2999</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" ht="12.75" customHeight="1" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>215</v>
+        <v>149</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="D79" s="6">
         <v>0.2</v>
@@ -3847,18 +3422,18 @@
         <v>4499</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" ht="12.75" customHeight="1" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>218</v>
+        <v>151</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="D80" s="6">
         <v>0.2</v>
@@ -3870,18 +3445,18 @@
         <v>1899</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" ht="12.75" customHeight="1" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>221</v>
+        <v>153</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="D81" s="6">
         <v>0.2</v>
@@ -3893,18 +3468,18 @@
         <v>749</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75" customHeight="1" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>224</v>
+        <v>155</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="D82" s="6">
         <v>0.2</v>
@@ -3916,18 +3491,18 @@
         <v>3199</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" ht="12.75" customHeight="1" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>227</v>
+        <v>140</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="D83" s="6">
         <v>0.2</v>
@@ -3938,17 +3513,19 @@
       <c r="F83" s="7">
         <v>2699</v>
       </c>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G83" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>229</v>
+        <v>140</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="D84" s="6">
         <v>0.2</v>
@@ -3959,17 +3536,19 @@
       <c r="F84" s="7">
         <v>2999</v>
       </c>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G84" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>231</v>
+        <v>140</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="D85" s="6">
         <v>0.2</v>
@@ -3980,17 +3559,19 @@
       <c r="F85" s="7">
         <v>4299</v>
       </c>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G85" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>233</v>
+        <v>140</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="D86" s="6">
         <v>0.2</v>
@@ -4001,17 +3582,19 @@
       <c r="F86" s="7">
         <v>8399</v>
       </c>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G86" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>235</v>
+        <v>140</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>361</v>
       </c>
       <c r="D87" s="6">
         <v>0.2</v>
@@ -4022,17 +3605,19 @@
       <c r="F87" s="7">
         <v>3199</v>
       </c>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G87" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>237</v>
+        <v>140</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="D88" s="6">
         <v>0.2</v>
@@ -4043,17 +3628,19 @@
       <c r="F88" s="7">
         <v>4099</v>
       </c>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G88" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>239</v>
+        <v>140</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="D89" s="6">
         <v>0.2</v>
@@ -4064,17 +3651,19 @@
       <c r="F89" s="7">
         <v>5499</v>
       </c>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G89" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="D90" s="6">
         <v>0.25</v>
@@ -4086,18 +3675,18 @@
         <v>1999</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75" customHeight="1" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="D91" s="6">
         <v>0.2</v>
@@ -4109,18 +3698,18 @@
         <v>1499</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75" customHeight="1" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="D92" s="6">
         <v>0.2</v>
@@ -4132,18 +3721,18 @@
         <v>1599</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75" customHeight="1" spans="1:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="D93" s="6">
         <v>0.2</v>
@@ -4155,18 +3744,18 @@
         <v>2099</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75" customHeight="1" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="D94" s="6">
         <v>0.2</v>
@@ -4178,18 +3767,18 @@
         <v>3399</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75" customHeight="1" spans="1:7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12.75" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D95" s="6">
         <v>0.2</v>
@@ -4201,18 +3790,18 @@
         <v>4099</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" ht="12.75" customHeight="1" spans="1:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12.75" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="D96" s="6">
         <v>0.2</v>
@@ -4224,18 +3813,18 @@
         <v>2059</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" ht="12.75" customHeight="1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12.75" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="D97" s="6">
         <v>0.2</v>
@@ -4247,18 +3836,18 @@
         <v>3949</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" ht="12.75" customHeight="1" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="D98" s="6">
         <v>0.2</v>
@@ -4270,18 +3859,18 @@
         <v>5199</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" ht="12.75" customHeight="1" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="D99" s="6">
         <v>0.2</v>
@@ -4293,18 +3882,18 @@
         <v>13699</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" ht="12.75" customHeight="1" spans="1:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="D100" s="6">
         <v>0.2</v>
@@ -4316,18 +3905,18 @@
         <v>9199</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" ht="12.75" customHeight="1" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>274</v>
+        <v>180</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="D101" s="6">
         <v>0.2</v>
@@ -4338,17 +3927,19 @@
       <c r="F101" s="7">
         <v>5699</v>
       </c>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G101" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>275</v>
+        <v>180</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="D102" s="6">
         <v>0.2</v>
@@ -4359,17 +3950,19 @@
       <c r="F102" s="7">
         <v>7199</v>
       </c>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G102" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>276</v>
+        <v>180</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="D103" s="6">
         <v>0.2</v>
@@ -4380,17 +3973,19 @@
       <c r="F103" s="7">
         <v>9999</v>
       </c>
-      <c r="G103" s="10"/>
-    </row>
-    <row r="104" ht="12.75" customHeight="1" spans="1:7">
+      <c r="G103" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12.75" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="D104" s="6">
         <v>0.2</v>
@@ -4402,18 +3997,18 @@
         <v>9999</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" ht="13" customHeight="1" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12.95" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="D105" s="6">
         <v>0.2</v>
@@ -4425,18 +4020,18 @@
         <v>499</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="106" ht="12.75" customHeight="1" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12.75" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="D106" s="6">
         <v>0.2</v>
@@ -4448,18 +4043,18 @@
         <v>769</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" ht="12.75" customHeight="1" spans="1:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="D107" s="6">
         <v>0.2</v>
@@ -4471,18 +4066,18 @@
         <v>1099</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" ht="12.75" customHeight="1" spans="1:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="D108" s="6">
         <v>0.2</v>
@@ -4494,18 +4089,18 @@
         <v>429</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" ht="12.75" customHeight="1" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D109" s="6">
         <v>0.2</v>
@@ -4517,18 +4112,18 @@
         <v>759</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" ht="12.75" customHeight="1" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="D110" s="6">
         <v>0.2</v>
@@ -4540,18 +4135,18 @@
         <v>2599</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" ht="12.75" customHeight="1" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="D111" s="6">
         <v>0.25</v>
@@ -4563,18 +4158,18 @@
         <v>3999</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="112" ht="12.75" customHeight="1" spans="1:7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="D112" s="6">
         <v>0.2</v>
@@ -4586,18 +4181,18 @@
         <v>1599</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75" customHeight="1" spans="1:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="12.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="D113" s="6">
         <v>0.25</v>
@@ -4609,18 +4204,18 @@
         <v>299</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" ht="12.75" customHeight="1" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="12.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="D114" s="6">
         <v>0.35</v>
@@ -4632,21 +4227,21 @@
         <v>899</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="115" ht="12.75" customHeight="1" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="12.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="D115" s="6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E115" s="7">
         <v>929</v>
@@ -4655,18 +4250,18 @@
         <v>699</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="116" ht="12.75" customHeight="1" spans="1:7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="12.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="D116" s="6">
         <v>0.2</v>
@@ -4678,18 +4273,18 @@
         <v>3499</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="117" ht="12.75" customHeight="1" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="12.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="D117" s="6">
         <v>0.25</v>
@@ -4701,100 +4296,131 @@
         <v>2399</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F117">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
     <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.electrolux.com.my/globalassets/appliances/dryers/edv904h3wc/edv904h3wc-frcl-1500x1500.png"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-4579/iVqMidej1698478441.png"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.propedia.com.my/wp-content/uploads/2024/11/H55P750UX.png"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.hlkonline.my/image/cache/catalog/2024/HAIER/HAI-H65S75EUG/2-800x800.jpeg"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://1now.my/wp-content/uploads/2024/08/1f0433b885d6376c2be8a22907ee347c.png"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://cdn.media.amplience.net/i/xcite/547749-01"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/h/r/hrf458ihm.png"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/h/a/haier_side_by_side_series_hrf689sige.png"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/h/a/haier_multi_door_refrigerator_hrfig585emgb.png"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://cdn.homepro.com.my/ART_IMAGE/10/788/1078806/447x447/17012025_1078806$Imagex1.jpg"/>
-    <hyperlink ref="G12" r:id="rId11" display="https://img.srewardscentre.com.my/image/676e72e992b941a8bce77bfb8bdbede9.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="G13" r:id="rId12" display="https://cdn.homepro.com.my/ART_IMAGE/10/722/1072262/447x447/27052024_1072262$Imagex6.jpg"/>
-    <hyperlink ref="G14" r:id="rId13" display="https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-5431/dZ9ePbHa1729992402.jpg"/>
-    <hyperlink ref="G15" r:id="rId14" display="https://manuals.plus/wp-content/uploads/2024/04/Haier-HWM200-BD2178S8-Top-Load-Fully-Automatic-Washing-Machine-Product.jpg"/>
-    <hyperlink ref="G16" r:id="rId15" display="https://shoplineimg.com/621729e6ee0d440013c7df40/662f2f177ac360001a3ca61e/800x.jpg?"/>
-    <hyperlink ref="G17" r:id="rId16" display="https://hnsgsfp.imgix.net/9/images/detailed/103/LG-QNED86-TV-1_pxzf-8a.PNG?fit=fill&amp;bg=0FFF&amp;w=1536&amp;h=900&amp;auto=format,compress"/>
-    <hyperlink ref="G18" r:id="rId17" display="https://www.lg.com/content/dam/channel/wcms/my/images/tvs/oled65b4psa_ats_eaml_my_c/OLED65B4PSA_ATS_EAML_MY_C-450x450.jpg"/>
-    <hyperlink ref="G19" r:id="rId18" display="https://shoplineimg.com/621729e6ee0d440013c7df40/6623adb0bb05050011577c63/800x.jpg?"/>
-    <hyperlink ref="G20" r:id="rId19" display="https://www.lg.com/content/dam/channel/wcms/my/images/tvs/65qned86tsa_ats_eaml_my_c/gallery/DZ-01.jpg"/>
-    <hyperlink ref="G21" r:id="rId20" display="https://www.lg.com/content/dam/channel/wcms/my/images/tvs/65ut8050psb_ats_eaml_my_c/gallery/DZ-01.jpg"/>
-    <hyperlink ref="G22" r:id="rId21" display="https://www.lg.com/content/dam/channel/wcms/my/images/tvs/75qned80tsa_ats_eaml_my_c/gallery/DZ-1.jpg"/>
-    <hyperlink ref="G23" r:id="rId22" display="https://www.lg.com/content/dam/channel/wcms/my/images/tvs/75qned86tsa_ats_eaml_my_c/gallery/DZ-01.jpg"/>
-    <hyperlink ref="G24" r:id="rId23" display="https://www.lg.com/content/dam/channel/wcms/id/images/tv/75ut8050psb_ati_eain_id_c/uhd-ut80-75-b-gallery-01-v2.jpg/_jcr_content/renditions/thum-1600x1062.jpeg"/>
-    <hyperlink ref="G25" r:id="rId24" display="https://www.lg.com/content/dam/channel/wcms/my/images/washers/f2515rtgb_ablreml_eaml_my_c/gallery/large01.jpg"/>
-    <hyperlink ref="G26" r:id="rId25" display="https://www.lg.com/content/dam/channel/wcms/my/images/washers/f2515stgw_abwreml_eaml_my_c/F2515STGW_ABWREML_EAML_MY_C-450x450.jpg"/>
-    <hyperlink ref="G27" r:id="rId26" display="https://www.lg.com/content/dam/channel/wcms/my/images/washers/fv1450s4w_abwpeml_eaml_my_c/gallery/D_1.jpg"/>
-    <hyperlink ref="G28" r:id="rId27" display="https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-m257cgfl_alwrlml_eaml_my_c/gallery/D-01.jpg"/>
-    <hyperlink ref="G29" r:id="rId28" display="https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-v24ffchb_aevrlml_eaml_my_c/gallery/12_F-Next6_GC-V24FFCHB_RVF-V256BS_EV_RightSide_On_1600.jpg"/>
-    <hyperlink ref="G30" r:id="rId29" display="https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-v257cqfw_aeprlml_eaml_my_c/gallery/DZ-012.jpg"/>
-    <hyperlink ref="G31" r:id="rId30" display="https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gc-x257cses_absrlml_eaml_my_c/gallery/medium01.jpg"/>
-    <hyperlink ref="G32" r:id="rId31" display="https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gn-b332pbgb_abnrlml_eaml_my_c/gallery/D-01v.jpg"/>
-    <hyperlink ref="G33" r:id="rId32" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRQISx1HMQKQQ2QyigB6a51x8GDz3pT0YaGIA&amp;s"/>
-    <hyperlink ref="G34" r:id="rId33" display="https://www.lg.com/content/dam/channel/wcms/my/images/refrigerators/gn-c702sggm_abmrlml_eaml_my_c/gallery/C702SGGC-dz-01.jpg"/>
-    <hyperlink ref="G35" r:id="rId34" display="https://www.lg.com/content/dam/channel/wcms/my/images/washers/rh10vhp2b_bblreml_eaml_my_c/gallery/DZ-1.jpg"/>
-    <hyperlink ref="G45" r:id="rId35" display="https://images.philips.com/is/image/philipsconsumer/2221e8c6bd974f3f9a0cb0c000d8f0ef?$pnglarge$&amp;wid=960"/>
-    <hyperlink ref="G46" r:id="rId36" display="https://images.philips.com/is/image/philipsconsumer/vrs_9224c91a403f836307f980a977640b9808f05421?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="G47" r:id="rId37" display="https://images.philips.com/is/image/philipsconsumer/vrs_233cca758569ccdf8eb02c7cec791e5fa25392e3?$pnglarge$&amp;wid=960"/>
-    <hyperlink ref="G48" r:id="rId38" display="https://images.philips.com/is/image/philipsconsumer/190e7e268c824908be02ad9c00d7818f?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="G49" r:id="rId39" display="https://images.philips.com/is/image/philipsconsumer/vrs_33b8194fbc9cc2c64d041a43527895c49947ef3a?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="G50" r:id="rId40" display="https://images.philips.com/is/image/philipsconsumer/292e377cdbd7450785ceaf8d00ca1c4c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="G51" r:id="rId41" display="https://www.banhuat.com/image/cache/catalog/products/airconditional/panasonic/CSPU9XKH-1/CSPU9XKH-1-T1-1000x1000.jpg"/>
-    <hyperlink ref="G52" r:id="rId42" display="https://www.esh2u.com/cdn/shop/files/5_adcee38a-1a10-4d2b-8a68-3859c36a454d_460x@2x.png?v=1711361574"/>
-    <hyperlink ref="G53" r:id="rId43" display="https://www.panasonic.com/content/dam/pim/my/en/DH/DH-3ND/DH-3NDP1MSR/ast-1412173.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="G54" r:id="rId44" display="https://www.panasonic.com/content/dam/pim/my/en/DH/DH-3UP/DH-3UP1MW/ast-1725765.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="G55" r:id="rId45" display="https://img.srewardscentre.com.my/images/ac75a13d-ee80-4bdd-afa9-9a065d547f5b.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="G69" r:id="rId46" display="https://my.robamworld.com/uploads/2b2890951.jpg"/>
-    <hyperlink ref="G70" r:id="rId47" display="https://my.robamworld.com/uploads/e07321ff.jpg"/>
-    <hyperlink ref="G71" r:id="rId48" display="https://my.robamworld.com/uploads/fae337ee.jpg"/>
-    <hyperlink ref="G72" r:id="rId49" display="https://www.robamworld.com/uploads/a2bafdbc.jpg"/>
-    <hyperlink ref="G73" r:id="rId50" display="https://dehomebiz.com.my/image/dehomebiz/image/cache/data/all_product_images/product-578/cmdDNfw1651e7014494e4_1696493588-1200x1200.jpg"/>
-    <hyperlink ref="G74" r:id="rId51" display="https://my.robamworld.com/uploads/bdea33a8.jpg"/>
-    <hyperlink ref="G75" r:id="rId52" display="https://images.samsung.com/is/image/samsung/p6pim/my/f-ar1-0byeaawk/gallery/my-wall-mount-f-ar1-0byeaawk-l-perspective-white-thumb-531730000?$360_360_PNG$"/>
-    <hyperlink ref="G76" r:id="rId53" display="https://images.samsung.com/is/image/samsung/p6pim/my/ww13bb944dgbfq/gallery/my-ww9400b-ww13bb944dgbfq-536637505?$684_547_PNG$"/>
-    <hyperlink ref="G77" r:id="rId54" display="https://images.samsung.com/is/image/samsung/p6pim/my/hw-q700d-xm/gallery/my-q-series-soundbar-hw-q700d-hw-q700d-xm-540508902?$684_547_PNG$"/>
-    <hyperlink ref="G78" r:id="rId55" display="https://images.samsung.com/is/image/samsung/p6pim/my/hw-q930d-xm/gallery/my-q-series-soundbar-hw-q930d-hw-q930d-xm-540508246?$684_547_PNG$"/>
-    <hyperlink ref="G80" r:id="rId56" display="https://images.samsung.com/is/image/samsung/p6pim/my/mc35r8088lc-sm/gallery/my-bespoke-mw8000r-mc35r8088lc-sm-399028624?$684_547_PNG$"/>
-    <hyperlink ref="G79" r:id="rId57" display="https://images.samsung.com/is/image/samsung/p6pim/my/hw-q990d-xm/gallery/my-q-series-soundbar-hw-q990d-hw-q990d-xm-540507335?$684_547_PNG$"/>
-    <hyperlink ref="G81" r:id="rId58" display="https://hnsgsfp.imgix.net/9/images/detailed/63/Samsung_MG30T5018CP_SM_30L_Grill_Microwave_Oven_-_Pink.jpg?fit=fill&amp;bg=0FFF&amp;w=1534&amp;h=900&amp;auto=format,compress"/>
-    <hyperlink ref="G82" r:id="rId59" display="https://images.samsung.com/is/image/samsung/p6pim/my/rs57dg4000b4me/gallery/my-rs4000dc-side-by-side-with-large-capacity-rs57dg4000b4me-542859088?$684_547_PNG$"/>
-    <hyperlink ref="G90" r:id="rId60" display="https://cdn.prod.website-files.com/654b2cfc9c3d3c3cb73e5271/6783898baf1230300d6d7036_ES-FH9BM-B.jpg"/>
-    <hyperlink ref="G91" r:id="rId61" display="https://my.sharp/sites/default/files/uploads/2024-08/front.jpg"/>
-    <hyperlink ref="G92" r:id="rId62" display="https://my.sharp/sites/default/files/uploads/2024-08/front_0.jpg"/>
-    <hyperlink ref="G93" r:id="rId63" display="https://my.sharp/sites/default/files/uploads/2024-09/1.jpg"/>
-    <hyperlink ref="G94" r:id="rId64" display="https://my.sharp/sites/default/files/uploads/2024-07/Front%201.jpg"/>
-    <hyperlink ref="G95" r:id="rId65" display="https://product-image.hbh-woolacotts.co.uk/jEfb28kmOForEn3XejHPQi84HSw=/fit-in/500x500/filters:fill(transparent)/HTA8000-3.jpg"/>
-    <hyperlink ref="G96" r:id="rId66" display="https://store.sony.com.my/cdn/shop/products/G7002_grande.jpg?v=1711074508"/>
-    <hyperlink ref="G97" r:id="rId67" display="https://hnsgsfp.imgix.net/9/images/detailed/104/Sony-Bravia-3-1_3xyt-1c.PNG?fit=fill&amp;bg=0FFF&amp;w=1536&amp;h=900&amp;auto=format,compress"/>
-    <hyperlink ref="G98" r:id="rId68" display="https://hnsgsfp.imgix.net/9/images/detailed/104/Sony-Bravia-3-1.PNG?fit=fill&amp;bg=0FFF&amp;w=1536&amp;h=900&amp;auto=format,compress"/>
-    <hyperlink ref="G99" r:id="rId69" display="https://store.sony.co.nz/dw/image/v2/ABBC_PRD/on/demandware.static/-/Sites-sony-master-catalog/default/dw8c1c8876/images/K65XR80/K65XR80_01.png?sw=442&amp;sh=442&amp;sm=fit"/>
-    <hyperlink ref="G100" r:id="rId70" display="https://d1ncau8tqf99kp.cloudfront.net/converted/119115_original_local_1200x1050_v3_converted.webp"/>
-    <hyperlink ref="G104" r:id="rId71" display="https://aws-obg-image-lb-4.tcl.com/content/dam/brandsite/region/australia/products/tv/c-series/c655/C655_98_angle_right_inscreen.jpg?t=1713323736954&amp;w=800"/>
-    <hyperlink ref="G105" r:id="rId72" display="https://www.tefal.com.au/cdn/shop/files/01EY8218.webp?v=1735514393&amp;width=2048"/>
-    <hyperlink ref="G106" r:id="rId73" display="https://shop.tbm.com.my/cdn/shop/products/tefal-air-fryer-fw2018-tbm-your-neighbourhood-electrical-store-286246.jpg?v=1649394600"/>
-    <hyperlink ref="G107" r:id="rId74" display="https://st.bigc-cs.com/cdn-cgi/image/format=webp,quality=90/public/media/catalog/product/28/31/3121040082928/3121040082928_2-20231005121923-.jpg"/>
-    <hyperlink ref="G108" r:id="rId75" display="https://shop.tbm.com.my/cdn/shop/products/tefal-jar-rice-cooker-rk818a-tbm-your-neighbourhood-electrical-store-309832.jpg?v=1669099211"/>
-    <hyperlink ref="G109" r:id="rId76" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/737653e05717e3f2/original/TEFAL_RK862165_Visual3.png?timestamp=20240618050853?twic=v1"/>
-    <hyperlink ref="G110" r:id="rId77" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/washing-machine/top-load-washer/aw-dum1400l(sg)/AW-DUM1400L_01.png/jcr:content/renditions/cq5dam.compression.png"/>
-    <hyperlink ref="G111" r:id="rId78" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/refrigerator/side-by-side-refrigerator/gr-rs780wi-pgy(22)---623l-side-by-side-dual-inverter-refrigerator/GR-RS780WI-PGY(22)_01.png"/>
-    <hyperlink ref="G112" r:id="rId79" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/microwave-oven/ms3-stq20se(bk)-20l-pure-steam-oven/MS3-STQ20SE-BK-02.png/jcr:content/renditions/MS3-STQ20SE-BK-02.webp"/>
-    <hyperlink ref="G113" r:id="rId80" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/microwave-oven/21l-microwave-oven-mw2-mm21pf-bk/gallery1.png"/>
-    <hyperlink ref="G114" r:id="rId81" display="https://www.berdaya2u.com.my/image/berdaya2u/image/data/all_product_images/product-1594/1.jpg"/>
-    <hyperlink ref="G115" r:id="rId82" display="https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-5150/E5BAJi271721207717.jpg"/>
-    <hyperlink ref="G116" r:id="rId83" display="https://shop.tbm.com.my/cdn/shop/files/toshiba-front-load-washing-machine-twd-t21bu115uwmmg-tbm-online-619894.jpg?v=1730441149"/>
-    <hyperlink ref="G117" r:id="rId84" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/washing-machine/front-load-washer/tw-t21/T21-03.png/jcr:content/renditions/cq5dam.compression.png"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G54" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G69" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G70" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G71" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G72" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G74" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G77" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G80" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G90" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G91" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G92" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G93" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G94" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G95" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G96" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G100" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G104" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G105" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G106" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G107" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G108" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G109" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G110" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G111" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G112" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G113" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G114" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G115" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G116" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G117" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G36" r:id="rId85" xr:uid="{FBD1150C-7598-449D-9DBB-EE1343CF9071}"/>
+    <hyperlink ref="G37" r:id="rId86" xr:uid="{2C70E696-2C1D-47AF-BDF0-52C13AB70042}"/>
+    <hyperlink ref="G38" r:id="rId87" xr:uid="{FDA98943-5A7A-44E3-A013-1FEA788D984C}"/>
+    <hyperlink ref="G39" r:id="rId88" xr:uid="{A0015A3A-C97D-4CAE-962E-1E9EAB0972D6}"/>
+    <hyperlink ref="G40" r:id="rId89" xr:uid="{6FC3A983-CC25-4BE7-A5A1-DAAD1077F413}"/>
+    <hyperlink ref="G41" r:id="rId90" xr:uid="{D8AB6856-F8FD-4D1F-9DD5-86E9B2B14EC1}"/>
+    <hyperlink ref="G42" r:id="rId91" xr:uid="{57295E8C-6ADF-450C-A295-B095526B1E2A}"/>
+    <hyperlink ref="G43" r:id="rId92" xr:uid="{9B35DED7-C34E-4CEA-81FA-C3DCD07C61C5}"/>
+    <hyperlink ref="G44" r:id="rId93" xr:uid="{C0DF00DC-DF61-44E7-ACD3-23D7A501AC82}"/>
+    <hyperlink ref="G56" r:id="rId94" xr:uid="{A1484097-2EB6-49B1-B2AC-BAD397781A6F}"/>
+    <hyperlink ref="G57" r:id="rId95" xr:uid="{5DDFFEBE-6D6F-4E26-9682-A390C60E3686}"/>
+    <hyperlink ref="G58" r:id="rId96" xr:uid="{500F3FFA-A61D-4504-8564-D92734172124}"/>
+    <hyperlink ref="G59" r:id="rId97" xr:uid="{57F06C57-C165-4F56-8726-4347DD998B0D}"/>
+    <hyperlink ref="G60" r:id="rId98" xr:uid="{67D9B99B-DE38-45FA-9152-E077B39EE109}"/>
+    <hyperlink ref="G61" r:id="rId99" xr:uid="{EDE8A9EC-E697-450C-B498-801A1FB2A2B0}"/>
+    <hyperlink ref="G62" r:id="rId100" xr:uid="{AC1C3E7C-65B8-4706-AB66-65D82775D551}"/>
+    <hyperlink ref="G63" r:id="rId101" xr:uid="{22B36EFF-1F1F-4865-AB0D-AEB567A4FF93}"/>
+    <hyperlink ref="G64" r:id="rId102" xr:uid="{59E24B66-88BD-407C-8BE9-1588B0E60515}"/>
+    <hyperlink ref="G65" r:id="rId103" xr:uid="{32D1C2F8-A6F2-41C7-BE90-839D1EAA4BA3}"/>
+    <hyperlink ref="G66" r:id="rId104" xr:uid="{10D89F67-E8C3-436B-8CFB-E86F7301BBEE}"/>
+    <hyperlink ref="G67" r:id="rId105" xr:uid="{8E8F7D58-3FE8-48C9-9DA6-308C9F1643FC}"/>
+    <hyperlink ref="G68" r:id="rId106" xr:uid="{F332B912-7011-4D39-B0C1-351663B6F1F3}"/>
+    <hyperlink ref="G83" r:id="rId107" xr:uid="{2E3508F1-9C27-43F3-A517-F94259D56A5D}"/>
+    <hyperlink ref="G84" r:id="rId108" xr:uid="{6481D488-5479-431F-91EF-786F771410A0}"/>
+    <hyperlink ref="G85" r:id="rId109" xr:uid="{3EDEC116-B5E3-4C50-B286-59CE817F8F9D}"/>
+    <hyperlink ref="G86" r:id="rId110" xr:uid="{55FE1A3D-5795-46DE-B57E-FF82F0B6BB1E}"/>
+    <hyperlink ref="G87" r:id="rId111" xr:uid="{71640DEC-C365-448C-8374-F80833419DDF}"/>
+    <hyperlink ref="G88" r:id="rId112" xr:uid="{96D46370-086B-4410-9D1F-62D53485B8E9}"/>
+    <hyperlink ref="G89" r:id="rId113" xr:uid="{9A22DBF3-BDBB-411C-AD75-CF4B85084847}"/>
+    <hyperlink ref="G101" r:id="rId114" xr:uid="{7B13FB6F-6C6D-43F6-87AA-50E2671B6E78}"/>
+    <hyperlink ref="G102" r:id="rId115" xr:uid="{E8A2B46A-E7F4-4CAA-B786-F46DAD96F027}"/>
+    <hyperlink ref="G103" r:id="rId116" xr:uid="{F5D6AF5B-5F8F-49BA-8667-93DDB134CFFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>